--- a/data/income_statement/3digits/total/131_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/131_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>131-Preparation and spinning of textile fibres</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>131-Preparation and spinning of textile fibres</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>9909512.64116</v>
@@ -962,31 +868,36 @@
         <v>17056693.76571</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>19289643.95927</v>
+        <v>19304810.27376</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>21715184.01362</v>
+        <v>21791791.28207</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>21659283.29084</v>
+        <v>22515933.0724</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>25005833.38941</v>
+        <v>25239042.03369</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>35211527.10148</v>
+        <v>35211527.10147999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>45631833.54618</v>
+        <v>45639354.34287</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>52172866.92013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>52719167.04649999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>59552334.003</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>8177506.81334</v>
@@ -1004,28 +915,33 @@
         <v>16662573.39764</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>18652266.71385</v>
+        <v>18723619.53804</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18475714.37194</v>
+        <v>19197642.3246</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21179227.74745</v>
+        <v>21406752.94398</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>30225411.37408001</v>
+        <v>30225411.37408</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>38456281.85219</v>
+        <v>38463720.0903</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44141791.50414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44546402.87686</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>50157149.084</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1557407.80274</v>
@@ -1040,31 +956,36 @@
         <v>2215119.55794</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2445201.9594</v>
+        <v>2460368.27389</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2844518.92473</v>
+        <v>2849602.29966</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2862701.214</v>
+        <v>2983603.76398</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3486398.37285</v>
+        <v>3490723.93014</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4539647.9333</v>
+        <v>4539647.933300001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6268258.026170001</v>
+        <v>6268276.53521</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7246525.038959999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7385638.91952</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8430324.237</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>174598.02508</v>
@@ -1082,28 +1003,33 @@
         <v>181868.60223</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>218398.37504</v>
+        <v>218569.44437</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>320867.7049</v>
+        <v>334686.9838199999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>340207.26911</v>
+        <v>341565.15957</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>446467.7940999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>907293.66782</v>
+        <v>907357.7173599999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>784550.3770300001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>787125.25012</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>964860.682</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>153056.05048</v>
@@ -1112,7 +1038,7 @@
         <v>163312.97493</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>208934.4148300001</v>
+        <v>208934.41483</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>207288.17385</v>
@@ -1121,28 +1047,33 @@
         <v>204999.41251</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>316695.18138</v>
+        <v>317213.4402600001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>343132.38362</v>
+        <v>369584.60701</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>358711.56248</v>
+        <v>360126.96924</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>800620.18866</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>751609.47642</v>
+        <v>751878.08531</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>781743.7690500001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>783820.3289300001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1022436.846</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>90381.91915999999</v>
@@ -1160,34 +1091,39 @@
         <v>151075.47496</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>241401.50775</v>
+        <v>241863.3167</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>266689.36811</v>
+        <v>291431.53062</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>271406.0521</v>
+        <v>272291.73715</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>674749.6745</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>493046.6779199999</v>
+        <v>493314.3263</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>581541.6597999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>583375.0950399999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>753300.29</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>38250.85997</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>35956.42442999999</v>
+        <v>35956.42443</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>35348.85821</v>
@@ -1199,28 +1135,33 @@
         <v>36227.28869</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>37480.66406</v>
+        <v>37513.55675</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>36477.79959</v>
+        <v>36529.75892</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>39596.14239</v>
+        <v>39597.17744</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>49896.87153000001</v>
+        <v>49896.87153</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>74188.46706</v>
+        <v>74189.42757</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>85014.07940999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>85247.71221000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>113190.783</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>24423.27135</v>
@@ -1238,28 +1179,33 @@
         <v>17696.64886</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>37813.00957</v>
+        <v>37836.56681</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>39965.21592</v>
+        <v>41623.31747000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>47709.36798999999</v>
+        <v>48238.05465</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>75973.64263000002</v>
+        <v>75973.64263</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>184374.33144</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>115188.02984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>115197.52168</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>155945.773</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>9756456.590679999</v>
@@ -1274,31 +1220,36 @@
         <v>16849405.59186</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>19084644.54676</v>
+        <v>19099810.86125</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>21398488.83224</v>
+        <v>21474577.84181</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>21316150.90722</v>
+        <v>22146348.46539</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>24647121.82693</v>
+        <v>24878915.06445</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>34410906.91282</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>44880224.06975999</v>
+        <v>44887476.25756</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>51391123.15108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>51935346.71757001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>58529897.157</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>8715645.66443</v>
@@ -1313,37 +1264,42 @@
         <v>15425786.06891</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>17097053.66252</v>
+        <v>17111910.08126</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>19308937.92149</v>
+        <v>19377570.94441</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>18483944.51302</v>
+        <v>19192145.17197</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>21375734.61429</v>
+        <v>21596919.59106</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>29459625.55952</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>37750365.56571</v>
+        <v>37757031.42392</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>44591282.79740001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>45094676.98438</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>49127034.703</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>7139134.721690001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>9374157.625800001</v>
+        <v>9374157.625799999</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>12303742.31748</v>
@@ -1355,28 +1311,33 @@
         <v>14205443.49378</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>16273059.15528</v>
+        <v>16321862.82945</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>15715214.71772</v>
+        <v>16260467.31204</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>18007937.44847</v>
+        <v>18186971.94058</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>24546015.81164</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>31681916.99597</v>
+        <v>31688471.97111</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>36858903.6585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>37311979.71707</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>40253585.675</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1307651.76108</v>
@@ -1391,31 +1352,36 @@
         <v>2076533.77338</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2489177.970689999</v>
+        <v>2504034.38943</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2638623.40458</v>
+        <v>2656598.89331</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2374026.30319</v>
+        <v>2522957.36042</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2888780.0905</v>
+        <v>2922207.4965</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4327373.03997</v>
+        <v>4327373.039969999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5235806.18899</v>
+        <v>5235826.62899</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6851332.308949999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6899312.993079999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7859678.379</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>139902.73705</v>
@@ -1433,28 +1399,33 @@
         <v>226633.71563</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>204510.70509</v>
+        <v>204940.67576</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>193485.79404</v>
+        <v>195006.49934</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>200120.77227</v>
+        <v>201029.71918</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>249903.62905</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>329968.30265</v>
+        <v>330058.74572</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>341740.07676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>344026.0831</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>377973.366</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>128956.44461</v>
@@ -1472,13 +1443,13 @@
         <v>175798.48242</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>192744.65654</v>
+        <v>194168.54589</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>201217.69807</v>
+        <v>213714.00017</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>278896.30305</v>
+        <v>286710.4347999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>336333.07886</v>
@@ -1487,13 +1458,18 @@
         <v>502674.0781</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>539306.7531900001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>539358.1911300001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>635797.2830000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1040810.92625</v>
@@ -1508,31 +1484,36 @@
         <v>1423619.52295</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1987590.88424</v>
+        <v>1987900.77999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2089550.91075</v>
+        <v>2097006.8974</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2832206.3942</v>
+        <v>2954203.29342</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3271387.212640001</v>
+        <v>3281995.47339</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4951281.3533</v>
+        <v>4951281.353300001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7129858.504050002</v>
+        <v>7130444.833640001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6799840.353680001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6840669.733190001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9402862.454</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>516659.25022</v>
@@ -1541,37 +1522,42 @@
         <v>551908.91213</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>637593.6340799999</v>
+        <v>637593.63408</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>675863.7429599999</v>
+        <v>675864.19039</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>735674.6173699999</v>
+        <v>735956.8414</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>817523.83063</v>
+        <v>820907.6668400001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>917868.00228</v>
+        <v>949316.8705099999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1010037.29609</v>
+        <v>1019175.82754</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1177747.43247</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1458789.55404</v>
+        <v>1461768.73092</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1817228.50724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1835332.87681</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2065919.793</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3459.82729</v>
@@ -1583,7 +1569,7 @@
         <v>4442.67791</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3203.9759</v>
+        <v>3203.975899999999</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>3691.70824</v>
@@ -1592,7 +1578,7 @@
         <v>3788.9161</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4354.670480000001</v>
+        <v>4354.67048</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2659.92897</v>
@@ -1604,13 +1590,18 @@
         <v>11262.16048</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>12072.70511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12452.87367</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13336.639</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>178673.04783</v>
@@ -1625,31 +1616,36 @@
         <v>254490.88622</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>285485.66768</v>
+        <v>285504.0290399999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>325306.66517</v>
+        <v>325900.1726</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>354589.20913</v>
+        <v>362811.84577</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>376263.73616</v>
+        <v>378968.704</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>473469.81425</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>627511.2325999999</v>
+        <v>627547.7248699999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>832016.8903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>836037.6605800001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>940636.9669999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>334526.3751</v>
@@ -1658,76 +1654,86 @@
         <v>370060.4145</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>413365.6594299999</v>
+        <v>413365.65943</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>418168.88084</v>
+        <v>418169.32827</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>446497.24145</v>
+        <v>446761.10412</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>488428.2493600001</v>
+        <v>491218.57814</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>558924.12267</v>
+        <v>582150.3542599999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>631113.63096</v>
+        <v>637547.1945699999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>697138.88056</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>820016.16096</v>
+        <v>822958.8455699999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>973138.91183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>986842.3425599998</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1111946.187</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>524151.67603</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>816468.2927999999</v>
+        <v>816468.2928000001</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>1066734.34317</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>747755.77999</v>
+        <v>747755.3325599999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1251916.26687</v>
+        <v>1251943.93859</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1272027.08012</v>
+        <v>1276099.23056</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1914338.39192</v>
+        <v>2004886.42291</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2261349.91655</v>
+        <v>2262819.64585</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3773533.92083</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5671068.950009999</v>
+        <v>5668676.10272</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4982611.84644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5005336.85638</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>7336942.661</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>662820.5855599999</v>
@@ -1742,31 +1748,36 @@
         <v>890056.4361</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1027384.07995</v>
+        <v>1027778.13448</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1393559.75396</v>
+        <v>1395951.99274</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2844957.3398</v>
+        <v>2988957.81374</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2788508.44348</v>
+        <v>2797609.54075</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3164596.328619999</v>
+        <v>3164596.32862</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7681812.81168</v>
+        <v>7702109.84652</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3558962.33237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3573408.14842</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6482565.223</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>6521.80586</v>
@@ -1775,19 +1786,19 @@
         <v>3966.10254</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>8072.102360000001</v>
+        <v>8072.102359999999</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>66864.11297</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>74625.40049000001</v>
+        <v>74625.40049</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>38062.31335</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>57351.45385</v>
+        <v>61471.74572</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>85771.76936000001</v>
@@ -1799,13 +1810,18 @@
         <v>569818.5702000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>70872.98949000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>67793.16626</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>173366.308</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1137.18387</v>
@@ -1826,7 +1842,7 @@
         <v>20816.31532</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>11291.45137</v>
+        <v>36291.45137</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>33343.18745</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>12930.17858</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5842.339</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>51470.30463999999</v>
+        <v>51470.30464</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>76018.34480999998</v>
+        <v>76018.34481000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>56385.66422</v>
+        <v>56385.66422000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>60755.74682</v>
+        <v>60755.74682000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>63042.23702</v>
+        <v>63042.23701999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>113377.13255</v>
+        <v>113586.01405</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>201138.45509</v>
+        <v>207826.98479</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>154872.80963</v>
+        <v>158091.27211</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>152829.58856</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>215788.5264</v>
+        <v>217232.46927</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>183028.8009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>184479.83437</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>231585.085</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1520.35014</v>
@@ -1904,7 +1930,7 @@
         <v>53.37686</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>654.0623700000001</v>
+        <v>654.06237</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>1521.34969</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1650.59335</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>23193.261</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>27885.99137</v>
@@ -1943,7 +1974,7 @@
         <v>8417.138050000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>38543.43712</v>
+        <v>38554.03712</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>41384.09875</v>
@@ -1952,16 +1983,21 @@
         <v>13856.15111</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>11824.70694</v>
+        <v>26524.43458</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>25807.92937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>25765.29010999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>60902.19</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4414.349450000001</v>
@@ -1973,19 +2009,19 @@
         <v>10124.23</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>68754.41826999999</v>
+        <v>68754.41827000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>2156.73611</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>92929.54351</v>
+        <v>92929.54350999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1036.17743</v>
+        <v>1229.95566</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1691.19409</v>
+        <v>1691.19871</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1668.71229</v>
@@ -1994,52 +2030,62 @@
         <v>2635.58935</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8153.19363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8153.193629999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>10677.095</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>484617.76833</v>
+        <v>484617.7683299999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>468549.4023000001</v>
+        <v>468549.4023</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>639146.6011399998</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>550795.7967399999</v>
+        <v>550795.79674</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>768736.3151499998</v>
+        <v>769100.4231300001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1022502.82389</v>
+        <v>1024718.67049</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2379074.34504</v>
+        <v>2475101.342879999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2301378.50812</v>
+        <v>2306007.37948</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2691688.333039999</v>
+        <v>2691688.33304</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6631367.31899</v>
+        <v>6634821.97908</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3020541.836690001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3035753.98896</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>5523327.775</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1674.6043</v>
@@ -2060,10 +2106,10 @@
         <v>18240.57829</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>26060.2726</v>
+        <v>26353.51067</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>34629.93963</v>
+        <v>35244.51875</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>46368.15335</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>94340.97469</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>62721.217</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>3.70053</v>
@@ -2111,19 +2162,24 @@
         <v>0.11938</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>252.4666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>5.999999999999999e-05</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>8.606</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>83574.52707000001</v>
+        <v>83574.52707</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>75385.99546999998</v>
+        <v>75385.99546999999</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>114384.12107</v>
@@ -2132,31 +2188,36 @@
         <v>118776.92519</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>76465.39400999999</v>
+        <v>76495.34056</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>79103.31064</v>
+        <v>79070.82132</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>129807.68493</v>
+        <v>141474.72316</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>133915.58676</v>
+        <v>134554.76645</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>124604.77939</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>135531.85856</v>
+        <v>136230.5628</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>141383.36907</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>142540.92841</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>390941.347</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>531305.16735</v>
@@ -2171,31 +2232,36 @@
         <v>460095.70059</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1658136.36144</v>
+        <v>1658484.12504</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1123980.12201</v>
+        <v>1126436.23986</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2784858.28955</v>
+        <v>2887360.90352</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2933568.13508</v>
+        <v>2937055.67882</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3532712.31653</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7783477.909910001</v>
+        <v>7791167.85864</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3783261.84615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3803576.01752</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6885578.552</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1862.39957</v>
@@ -2207,13 +2273,13 @@
         <v>12172.66878</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6736.90392</v>
+        <v>6736.903920000001</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>3448.63174</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5348.22501</v>
+        <v>5366.606930000001</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>7555.53396</v>
@@ -2230,23 +2296,28 @@
       <c r="M37" s="48" t="n">
         <v>15663.7448</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>17549.055</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>56055.80439999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>45117.0101</v>
+        <v>45117.01009999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>64750.3338</v>
+        <v>64750.33380000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>50022.92288</v>
+        <v>50022.92288000001</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>52706.15472</v>
@@ -2267,16 +2338,21 @@
         <v>100816.28589</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>152781.29907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>157148.0704</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>195742.284</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>92.37651</v>
+        <v>92.37651000000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>1138.17228</v>
@@ -2297,7 +2373,7 @@
         <v>484.4856</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>197.28556</v>
+        <v>140.27168</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>545.73648</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>933.4741700000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3074.33</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>443113.2552099999</v>
+        <v>443113.25521</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>381019.3858399999</v>
+        <v>381019.3858400001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>746953.38611</v>
@@ -2327,31 +2408,36 @@
         <v>372278.73163</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1095778.82397</v>
+        <v>1096126.58757</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1008859.55437</v>
+        <v>1011064.42396</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2627527.62974</v>
+        <v>2719319.42833</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2698202.0147</v>
+        <v>2700517.58901</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3332469.094310001</v>
+        <v>3332469.09431</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7454995.07847</v>
+        <v>7462677.189009999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3493108.74582</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3509120.23993</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6558581.55</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2542.55338</v>
@@ -2372,13 +2458,13 @@
         <v>22182.65585</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>27114.30255</v>
+        <v>27361.4501</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>40054.15682</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>56584.42817</v>
+        <v>56584.42816999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>113755.40627</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>72891.73722</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>63152.2</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3.996</v>
@@ -2405,7 +2496,7 @@
         <v>24.96082</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>52.43159</v>
+        <v>52.43159000000001</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>2.44155</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>27634.78228</v>
@@ -2447,67 +2543,77 @@
         <v>488098.10655</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>24844.06746</v>
+        <v>25076.9338</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>21841.4287</v>
+        <v>32305.09653</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>28920.00465</v>
+        <v>30148.98796</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>30160.08819</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>98345.51389000002</v>
+        <v>98353.35208</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>47882.84507</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>47818.751</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>47479.133</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>448291.33983</v>
+        <v>448291.3398300001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>357948.64814</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>735329.9867100001</v>
+        <v>735329.98671</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>477463.37787</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>898157.9836799999</v>
+        <v>898157.9836800001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>953250.5504600001</v>
+        <v>955753.0889399999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1588966.48266</v>
+        <v>1693848.86264</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1637176.8946</v>
+        <v>1647086.51647</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1924152.6704</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4099191.23667</v>
+        <v>4099356.61791</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2363735.34421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2368498.89683</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3560612.291</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>325807.39465</v>
@@ -2525,28 +2631,33 @@
         <v>648474.29664</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>792691.3016699998</v>
+        <v>794693.4186699999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1149921.66245</v>
+        <v>1207086.59007</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1135570.08882</v>
+        <v>1140302.96737</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1356423.29915</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2683234.11185</v>
+        <v>2683399.49309</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1827934.81876</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1831926.4775</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2135006.283</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>122483.94518</v>
@@ -2564,67 +2675,77 @@
         <v>249683.68704</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>160559.24879</v>
+        <v>161059.67027</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>439044.82021</v>
+        <v>486762.27257</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>501606.80578</v>
+        <v>506783.5491</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>567729.37125</v>
+        <v>567729.3712500001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>1415957.12482</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>535800.52545</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>536572.4193299999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1425606.008</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>207375.75441</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>664535.9826099999</v>
+        <v>664535.9826100001</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>321453.12043</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>700253.13763</v>
+        <v>700252.6902000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-276993.9983</v>
+        <v>-276920.03565</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>588356.1616100001</v>
+        <v>589861.8945000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>385470.95951</v>
+        <v>412634.47049</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>479113.3303499999</v>
+        <v>476286.99131</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1481265.26252</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1470212.61511</v>
+        <v>1480261.47269</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2394576.98845</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2406670.09045</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3373317.041</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>278374.93392</v>
@@ -2636,34 +2757,39 @@
         <v>241650.55521</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>412894.1578200001</v>
+        <v>412894.15782</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>228004.68189</v>
+        <v>228005.37876</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>233629.46724</v>
+        <v>233828.73755</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>442055.3835</v>
+        <v>448502.46843</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>566756.58361</v>
+        <v>568158.46611</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>372560.1349300001</v>
+        <v>372560.13493</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>855329.4734000001</v>
+        <v>856795.35288</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>446448.42675</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>450091.61677</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>565317.9620000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>704.0694599999999</v>
@@ -2684,7 +2810,7 @@
         <v>3295.30713</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1746.64522</v>
+        <v>1749.60589</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>2081.39411</v>
@@ -2693,16 +2819,21 @@
         <v>6993.4777</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1521.83659</v>
+        <v>1528.8273</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>22729.66057</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>22931.3199</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8312.548000000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>277670.86446</v>
@@ -2717,31 +2848,36 @@
         <v>402892.5993</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>227801.11269</v>
+        <v>227801.80956</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>230334.16011</v>
+        <v>230533.43042</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>440308.73828</v>
+        <v>446752.86254</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>564675.1895</v>
+        <v>566077.072</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>365566.65723</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>853807.6368099999</v>
+        <v>855266.5255799999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>423718.76618</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>427160.29687</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>557005.414</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>133886.48247</v>
@@ -2756,37 +2892,42 @@
         <v>210461.61518</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>160199.96311</v>
+        <v>160200.57888</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>246448.41856</v>
+        <v>246554.47586</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>454792.5546500001</v>
+        <v>461759.6216</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>546019.6238399999</v>
+        <v>548764.49541</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>245767.06122</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>375585.62293</v>
+        <v>390651.33333</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>276801.19664</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>277817.22012</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>450219.428</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>56057.7084</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>36611.23069999999</v>
+        <v>36611.2307</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>36610.3438</v>
@@ -2798,31 +2939,36 @@
         <v>37669.47195000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>45664.91532</v>
+        <v>45679.88798</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>75677.47452000002</v>
+        <v>76645.58731999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>51517.85993999999</v>
+        <v>51536.24844</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>79943.64473999999</v>
+        <v>79943.64474</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>101358.19865</v>
+        <v>101666.1541</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>112742.35466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>112938.57282</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>65761.231</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4351.20081</v>
+        <v>4351.200809999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>13463.70356</v>
@@ -2834,115 +2980,130 @@
         <v>7354.142309999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8312.251109999999</v>
+        <v>8312.251110000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5118.97261</v>
+        <v>5118.972610000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>13281.85331</v>
+        <v>13332.27936</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2081.76977</v>
+        <v>2958.40106</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2677.47326</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>48726.21764</v>
+        <v>48726.29524</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13684.49526</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>13690.28396</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>40000.056</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>73477.57326</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>62006.2289</v>
+        <v>62006.22890000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>265665.8434299999</v>
+        <v>265665.84343</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>152031.64382</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>114218.24005</v>
+        <v>114218.85582</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>195664.53063</v>
+        <v>195755.61527</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>365833.22682</v>
+        <v>371781.75492</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>492419.9941299999</v>
+        <v>494269.84591</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>163145.94322</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>225501.20664</v>
+        <v>240258.88399</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>150374.34672</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>151188.36334</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>344458.141</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>351864.20586</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>708802.42969</v>
+        <v>708802.4296899999</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>256527.00912</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>902685.68027</v>
+        <v>902685.2328400001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-209189.27952</v>
+        <v>-209115.23577</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>575537.21029</v>
+        <v>577136.15619</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>372733.78836</v>
+        <v>399377.31732</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>499850.29012</v>
+        <v>495680.96201</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1608058.33623</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1949956.46558</v>
+        <v>1946405.49224</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2564224.21856</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2578944.4871</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3488415.575</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>55501.83781</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>86945.60749000001</v>
+        <v>86945.60748999999</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>104445.36079</v>
@@ -2951,34 +3112,39 @@
         <v>112770.85665</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>100055.09177</v>
+        <v>100060.26354</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>143104.91717</v>
+        <v>143467.93645</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>168142.96931</v>
+        <v>180742.88236</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>147132.3551</v>
+        <v>147436.08454</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>220980.04524</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>268643.95894</v>
+        <v>269087.33909</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>327882.10728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>332360.71457</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>452385.431</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>296362.3680499999</v>
+        <v>296362.36805</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>621856.8222000001</v>
@@ -2987,31 +3153,34 @@
         <v>152081.64833</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>789914.82362</v>
+        <v>789914.3761900001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-309244.37129</v>
+        <v>-309175.49931</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>432432.29312</v>
+        <v>433668.21974</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>204590.81905</v>
+        <v>218634.43496</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>352717.93502</v>
+        <v>348244.87747</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1387078.29099</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1681312.50664</v>
+        <v>1677318.15315</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2236342.11128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2246583.77253</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3036030.144</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1714</v>
@@ -3041,31 +3213,34 @@
         <v>1562</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1025</v>
+        <v>1039</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1069</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>997</v>
+        <v>1082</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1117</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>